--- a/003.xlsx
+++ b/003.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="4" documentId="8_{F80454B9-BA98-4B70-A6FE-76E5592F09AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6220B431-DEAD-4E37-A7BA-C7AEF4868E67}"/>
   <bookViews>
-    <workbookView xWindow="6315" yWindow="2430" windowWidth="23595" windowHeight="16485" xr2:uid="{D77F7E86-3941-43EA-8F49-C059F491016E}"/>
+    <workbookView xWindow="14580" yWindow="8760" windowWidth="11445" windowHeight="8130" xr2:uid="{D77F7E86-3941-43EA-8F49-C059F491016E}"/>
   </bookViews>
   <sheets>
     <sheet name="003" sheetId="1" r:id="rId1"/>
@@ -1068,8 +1068,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A546240-904D-45FA-8817-2AA4244B74B6}">
   <dimension ref="A1:W119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O52" workbookViewId="0">
-      <selection activeCell="Y72" sqref="Y72"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="F61" sqref="F61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
